--- a/02-intermediate/160-hands-on-06.xlsx
+++ b/02-intermediate/160-hands-on-06.xlsx
@@ -4109,12 +4109,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="68" zoomScalePageLayoutView="58" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7257,8 +7256,8 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="81" fitToWidth="2" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1.25" bottom="1.25" header="0.25" footer="0.3"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LMCLEOD&amp;C&amp;G&amp;R&amp;P of &amp;N</oddHeader>
     <oddFooter>&amp;L&amp;Z&amp;F
